--- a/Database In Progress.xlsx
+++ b/Database In Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcl\OneDrive\Skrivebord\Skole Arbejde\3.g\Programmering B\Øvelsesprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58EA6F-5755-4D94-8705-1E3BC84A5321}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503A091-586F-4B76-A2EB-8C514DA5C864}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{E9417984-A4EE-4804-8C9B-1C8EC6F1FA60}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{E9417984-A4EE-4804-8C9B-1C8EC6F1FA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="155">
   <si>
     <t>Processorer</t>
   </si>
@@ -424,6 +424,78 @@
   </si>
   <si>
     <t>Crossfire support</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Gigs</t>
+  </si>
+  <si>
+    <t>DDR(?)</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>Styks</t>
+  </si>
+  <si>
+    <t>Corsair Dominator</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>SSD/HDD</t>
+  </si>
+  <si>
+    <t>2,5 or 3,5 or m.2</t>
+  </si>
+  <si>
+    <t>Seagate Barracuda</t>
+  </si>
+  <si>
+    <t>Size (GB)</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>m.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung 970 EVO Plus </t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>NZXT H210</t>
+  </si>
+  <si>
+    <t>motherboard størrelse</t>
+  </si>
+  <si>
+    <t>Mini ITX</t>
+  </si>
+  <si>
+    <t>Stock Fans</t>
+  </si>
+  <si>
+    <t>Deepcool Matrexx 70 RGB</t>
+  </si>
+  <si>
+    <t>E-ATX</t>
+  </si>
+  <si>
+    <t>MasterCase H500P Mesh</t>
   </si>
 </sst>
 </file>
@@ -839,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B10474-41C3-4808-A627-75A88FD5A4F6}">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="F70" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,15 +2894,27 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="A55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2846,15 +2930,27 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2666</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1">
+        <v>500</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2870,15 +2966,27 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2666</v>
+      </c>
+      <c r="C57" s="1">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="1">
+        <v>650</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2894,15 +3002,27 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1">
+        <v>700</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -2918,15 +3038,27 @@
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2666</v>
+      </c>
+      <c r="C59" s="1">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="1">
+        <v>1400</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2942,15 +3074,27 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1">
+        <v>1400</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -2966,15 +3110,27 @@
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2666</v>
+      </c>
+      <c r="C61" s="1">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1">
+        <v>1500</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -2990,15 +3146,27 @@
       <c r="V61" s="1"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C62" s="1">
+        <v>64</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="1">
+        <v>2800</v>
+      </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3014,15 +3182,27 @@
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C63" s="1">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1">
+        <v>2900</v>
+      </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3038,15 +3218,27 @@
       <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2666</v>
+      </c>
+      <c r="C64" s="1">
+        <v>128</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1">
+        <v>5800</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3086,15 +3278,25 @@
       <c r="V65" s="1"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3110,15 +3312,25 @@
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="1">
+        <v>250</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2.5</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>340</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3134,15 +3346,25 @@
       <c r="V67" s="1"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.5</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>400</v>
+      </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3158,15 +3380,25 @@
       <c r="V68" s="1"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.5</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>700</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3182,15 +3414,25 @@
       <c r="V69" s="1"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.5</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1">
+        <v>1350</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3206,15 +3448,25 @@
       <c r="V70" s="1"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.5</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1">
+        <v>400</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3230,15 +3482,25 @@
       <c r="V71" s="1"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.5</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="1">
+        <v>950</v>
+      </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3254,15 +3516,25 @@
       <c r="V72" s="1"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.5</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="1">
+        <v>1800</v>
+      </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3278,15 +3550,25 @@
       <c r="V73" s="1"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="1">
+        <v>512</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="1">
+        <v>950</v>
+      </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3302,15 +3584,25 @@
       <c r="V74" s="1"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="1">
+        <v>250</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="1">
+        <v>800</v>
+      </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3326,15 +3618,25 @@
       <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="1">
+        <v>500</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="1">
+        <v>1200</v>
+      </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3350,15 +3652,25 @@
       <c r="V76" s="1"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="1">
+        <v>2200</v>
+      </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3398,15 +3710,23 @@
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3422,15 +3742,23 @@
       <c r="V79" s="1"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="1">
+        <v>670</v>
+      </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3446,15 +3774,23 @@
       <c r="V80" s="1"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="1">
+        <v>800</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -3470,15 +3806,23 @@
       <c r="V81" s="1"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="1">
+        <v>1200</v>
+      </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
